--- a/DDS401 Team NI Case Study 1 Project Plan.xlsx
+++ b/DDS401 Team NI Case Study 1 Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa384dc48f87cf2c/Desktop/SMU MSDS/Doing Data Science/Case Study 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ruben\Documents\SMU\Ruben-Chavez-SMU-Homework\Ruben-Chavez-SMU-MSDS-Homework\Doing Data Science\DDS_401_TeamNI_Case_Study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC0EE55-DA5C-44A9-B24A-5106B2F4BC77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB88C2A-2C0D-44F1-B979-4F01F8C0CE1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F80FE941-AA38-415F-98DF-929EB2B73926}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{F80FE941-AA38-415F-98DF-929EB2B73926}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Turn in and present project</t>
+  </si>
+  <si>
+    <t>Ruben Chavez</t>
   </si>
 </sst>
 </file>
@@ -607,18 +610,18 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -652,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -666,7 +669,7 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -677,13 +680,16 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="2">
         <v>43471</v>
       </c>
@@ -691,13 +697,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="2">
         <v>43471</v>
       </c>
@@ -705,13 +714,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="2">
         <v>43471</v>
       </c>
@@ -719,13 +731,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2">
         <v>43471</v>
       </c>
@@ -733,13 +748,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="2">
         <v>43471</v>
       </c>
@@ -747,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -761,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -775,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -789,7 +807,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -800,7 +818,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -814,7 +832,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>

--- a/DDS401 Team NI Case Study 1 Project Plan.xlsx
+++ b/DDS401 Team NI Case Study 1 Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ruben\Documents\SMU\Ruben-Chavez-SMU-Homework\Ruben-Chavez-SMU-MSDS-Homework\Doing Data Science\DDS_401_TeamNI_Case_Study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\DDS_401_TeamNI_Case_Study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB88C2A-2C0D-44F1-B979-4F01F8C0CE1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C4497E2-6BF7-4DA6-88D7-8231BA824072}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{F80FE941-AA38-415F-98DF-929EB2B73926}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F80FE941-AA38-415F-98DF-929EB2B73926}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -123,9 +123,6 @@
     <t>remember to clearly annotate before and after code chunk</t>
   </si>
   <si>
-    <t>I will link this here once I have it set up</t>
-  </si>
-  <si>
     <t>T shirt Size</t>
   </si>
   <si>
@@ -246,13 +243,28 @@
   </si>
   <si>
     <t>Ruben Chavez</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ruben/Michael</t>
+  </si>
+  <si>
+    <t>https://github.com/mjwolfe91/DDS_401_TeamNI_Case_Study1.git</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,13 +280,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,15 +330,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,26 +660,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC8C925-EE36-45BD-8FD1-A3A37F338D21}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -635,15 +689,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -651,16 +708,19 @@
       <c r="D2" s="2">
         <v>43453</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -668,137 +728,173 @@
       <c r="D3" s="2">
         <v>43453</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>43471</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>43471</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>43471</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>43471</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>43471</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>43471</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>43471</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>43471</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -806,48 +902,66 @@
       <c r="D12" s="2">
         <v>43472</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>43473</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>43473</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>43474</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{DB6009E8-903C-4C63-985B-60080163A336}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>